--- a/01_intro-programming/01_files/solver_diethyl_ether.xlsx
+++ b/01_intro-programming/01_files/solver_diethyl_ether.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BitTorrent Sync\SPI-Cloud\Education\Numerieke Methoden (6E5X0)\2016\Slides\01_intro-programming\01_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iroghair\surfdrive\Education\Numerical Methods\2017\Slides and handouts\01_intro-programming\01_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linearity Report 1" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
@@ -45,12 +45,12 @@
     <definedName name="solver_sho" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -268,8 +268,8 @@
     <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Goed" xfId="1" builtinId="26"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -285,9 +285,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -299,7 +299,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -408,39 +407,44 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1859.4554015497929</c:v>
+                  <c:v>57.760482531949549</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3495.6446247148892</c:v>
+                  <c:v>156.11932928177168</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6346.4577857003524</c:v>
+                  <c:v>393.00860134209597</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11154.057053220437</c:v>
+                  <c:v>927.65179197784698</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19018.554650681235</c:v>
+                  <c:v>2065.241715631993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31523.296167122004</c:v>
+                  <c:v>4359.3757809773115</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50885.040338988489</c:v>
+                  <c:v>8764.998066951237</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80127.900501185606</c:v>
+                  <c:v>16855.351500927183</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>123277.96744639195</c:v>
+                  <c:v>31115.329464925253</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>185573.48313232022</c:v>
+                  <c:v>55320.579781578839</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-369F-473A-AD93-D54AD5C82435}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -548,6 +552,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-369F-473A-AD93-D54AD5C82435}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1302,7 +1311,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1582,7 +1597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -1740,11 +1755,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,11 +1808,11 @@
       </c>
       <c r="E2">
         <f>1000*EXP($C$14-$C$15/(D2+$C$16))</f>
-        <v>1859.4554015497929</v>
+        <v>57.760482531949549</v>
       </c>
       <c r="F2">
         <f>(E2-A2)^2</f>
-        <v>46288.592255750613</v>
+        <v>4067654.707094755</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1817,11 +1832,11 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E11" si="2">1000*EXP($C$14-$C$15/(D3+$C$16))</f>
-        <v>3495.6446247148892</v>
+        <v>156.11932928177168</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F11" si="3">(E3-A3)^2</f>
-        <v>145255.83128573193</v>
+        <v>13843234.380760634</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1841,11 +1856,11 @@
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>6346.4577857003524</v>
+        <v>393.00860134209597</v>
       </c>
       <c r="F4">
         <f t="shared" si="3"/>
-        <v>428852.54351870145</v>
+        <v>43669860.510655321</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1865,11 +1880,11 @@
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>11154.057053220437</v>
+        <v>927.65179197784698</v>
       </c>
       <c r="F5">
         <f t="shared" si="3"/>
-        <v>1196642.40858136</v>
+        <v>128149571.97586414</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1889,11 +1904,11 @@
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>19018.554650681235</v>
+        <v>2065.241715631993</v>
       </c>
       <c r="F6">
         <f t="shared" si="3"/>
-        <v>3168680.8846548586</v>
+        <v>350939969.58686769</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1913,11 +1928,11 @@
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>31523.296167122004</v>
+        <v>4359.3757809773115</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>7991967.2593899369</v>
+        <v>899455711.49171758</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1937,11 +1952,11 @@
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>50885.040338988489</v>
+        <v>8764.998066951237</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>19263640.802595291</v>
+        <v>2163094401.9107509</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1961,11 +1976,11 @@
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>80127.900501185606</v>
+        <v>16855.351500927183</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>44508392.654270589</v>
+        <v>4892164543.0911932</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1985,11 +2000,11 @@
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>123277.96744639195</v>
+        <v>31115.329464925253</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>98843763.023706838</v>
+        <v>10425361195.308067</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2009,17 +2024,17 @@
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>185573.48313232022</v>
+        <v>55320.579781578839</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>211511679.1804432</v>
+        <v>20965981367.803852</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F12">
         <f>SUM(F2:F11)</f>
-        <v>387105163.18070221</v>
+        <v>39886727510.766823</v>
       </c>
       <c r="G12">
         <v>78710.532115686496</v>
@@ -2030,32 +2045,41 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" s="13">
         <v>14.071445415013891</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="1">
-        <v>2500</v>
+      <c r="C15">
+        <v>2800</v>
       </c>
       <c r="E15" s="14">
         <v>2510.2073057505709</v>
+      </c>
+      <c r="G15">
+        <v>2600</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="1">
-        <v>230</v>
+      <c r="C16">
+        <v>200</v>
       </c>
       <c r="E16" s="14">
         <v>231.2934770363168</v>
+      </c>
+      <c r="G16">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
